--- a/biology/Médecine/1307_en_santé_et_médecine/1307_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1307_en_santé_et_médecine/1307_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1307_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1307_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1307 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1307_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1307_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Denis Ier, roi de Portugal, fonde la première chaire de médecine de l'université de Coimbra[2].
-Fondation à Berne, ville libre du Saint-Empire,  du grosse Spital (« grand hôpital »), qui deviendra Burgerspital (« hôpital des bourgeois ») en 1528[3].
-Une aumônerie ou maison-Dieu est attestée à Bressuire, en Poitou, hors les murs, sur l'actuel boulevard du Guédeau[4].
-Un hôpital ou maison-Dieu est attesté à l'Étang d'Amel, près de Senon, en Lorraine[5],[6].
-Fondation, près de la ville minière de Schwaz, du premier hôpital du Tyrol en Autriche, établissement qui est à l'origine de la faculté de médecine d'Innsbruck, devenue université de médecine[7].
-Fondation à Luxembourg de l'hôpital Saint-Jean, dont le site est aujourd'hui occupé par le Musée national d'histoire naturelle du Luxembourg[8].
-Fondation supposée de l'hôpital Sainte-Marie-Madeleine (Hospital of St. Mary Magdalene) à Wilton dans le comté de Wiltshire en Angleterre[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Denis Ier, roi de Portugal, fonde la première chaire de médecine de l'université de Coimbra.
+Fondation à Berne, ville libre du Saint-Empire,  du grosse Spital (« grand hôpital »), qui deviendra Burgerspital (« hôpital des bourgeois ») en 1528.
+Une aumônerie ou maison-Dieu est attestée à Bressuire, en Poitou, hors les murs, sur l'actuel boulevard du Guédeau.
+Un hôpital ou maison-Dieu est attesté à l'Étang d'Amel, près de Senon, en Lorraine,.
+Fondation, près de la ville minière de Schwaz, du premier hôpital du Tyrol en Autriche, établissement qui est à l'origine de la faculté de médecine d'Innsbruck, devenue université de médecine.
+Fondation à Luxembourg de l'hôpital Saint-Jean, dont le site est aujourd'hui occupé par le Musée national d'histoire naturelle du Luxembourg.
+Fondation supposée de l'hôpital Sainte-Marie-Madeleine (Hospital of St. Mary Magdalene) à Wilton dans le comté de Wiltshire en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1307_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1307_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Bonfils, médecin juif de Sauve, en Languedoc[10].
-Fl. Ebredenus, chirurgien, qui dépose dans une affaire criminelle à Digne, en Provence[10].
-Fl. Guillaume, barbier d'Étienne Béquart, archevêque de Sens, qui lui lègue quarante livres tournois[10].
-Vers 1307 : fl.  Étienne de Nogent, à Paris, rue Simon-le-Franc et Ambroise, clerc, propriétaire à Drancy, tous deux médecins du roi Philippe le Bel[10].
-1307-1336 : fl. Étienne Dufresne, médecin et familier de Jeanne de Bourgogne[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Bonfils, médecin juif de Sauve, en Languedoc.
+Fl. Ebredenus, chirurgien, qui dépose dans une affaire criminelle à Digne, en Provence.
+Fl. Guillaume, barbier d'Étienne Béquart, archevêque de Sens, qui lui lègue quarante livres tournois.
+Vers 1307 : fl.  Étienne de Nogent, à Paris, rue Simon-le-Franc et Ambroise, clerc, propriétaire à Drancy, tous deux médecins du roi Philippe le Bel.
+1307-1336 : fl. Étienne Dufresne, médecin et familier de Jeanne de Bourgogne.</t>
         </is>
       </c>
     </row>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1307_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1307_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean de Gaddesden (1280-1361) médecin anglais, achève la rédaction de la Rosa medicinae[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean de Gaddesden (1280-1361) médecin anglais, achève la rédaction de la Rosa medicinae.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1307_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1307_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jean d'Arderne (mort en 1392), considéré comme le père de la chirurgie en Angleterre[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean d'Arderne (mort en 1392), considéré comme le père de la chirurgie en Angleterre.</t>
         </is>
       </c>
     </row>
